--- a/template Excel/HR/Application.xlsx
+++ b/template Excel/HR/Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1CA41E-F02A-4EA7-8D59-197805D63D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB9509-05AF-4419-9334-3C3F5F7D6E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B0E9E192-1C31-4093-A38F-8DE1BBD0FF18}"/>
   </bookViews>
@@ -38,39 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
-    <t xml:space="preserve"> FullName</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DateOfBirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PhoneNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ApplicationDate</t>
-  </si>
-  <si>
     <t>PassCv</t>
   </si>
   <si>
-    <t xml:space="preserve"> RecruitmentChannelId</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JobPositionId </t>
-  </si>
-  <si>
     <t>InterviewDate</t>
   </si>
   <si>
@@ -80,9 +50,6 @@
     <t>HireDate</t>
   </si>
   <si>
-    <t xml:space="preserve">ApplicantId </t>
-  </si>
-  <si>
     <t>ApplicationId</t>
   </si>
   <si>
@@ -201,6 +168,39 @@
   </si>
   <si>
     <t>bui.k@example.com</t>
+  </si>
+  <si>
+    <t>ApplicantId</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>RecruitmentChannelId</t>
+  </si>
+  <si>
+    <t>JobPositionId</t>
+  </si>
+  <si>
+    <t>ApplicationDate</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,52 +606,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -662,25 +662,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2">
         <v>32918</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1">
         <v>987654321</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -692,13 +692,13 @@
         <v>45296</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N2" s="2">
         <v>45301</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P2" s="2">
         <v>45323</v>
@@ -712,25 +712,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
         <v>33746</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1">
         <v>912345678</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -742,13 +742,13 @@
         <v>45334</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N3" s="2">
         <v>45340</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P3" s="2">
         <v>45352</v>
@@ -762,25 +762,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>32450</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G4" s="1">
         <v>901234567</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1">
         <v>3</v>
@@ -792,13 +792,13 @@
         <v>45376</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N4" s="2">
         <v>45381</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P4" s="2">
         <v>45352</v>
@@ -812,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
         <v>34897</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1">
         <v>981122334</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1">
         <v>4</v>
@@ -842,13 +842,13 @@
         <v>45384</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N5" s="2">
         <v>45390</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P5" s="2">
         <v>45413</v>
@@ -862,25 +862,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>33491</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1">
         <v>976543210</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -892,13 +892,13 @@
         <v>45428</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N6" s="2">
         <v>45433</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P6" s="2">
         <v>45444</v>
@@ -912,25 +912,25 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>32132</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1">
         <v>965432109</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
@@ -942,13 +942,13 @@
         <v>45461</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N7" s="2">
         <v>45468</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P7" s="2">
         <v>45352</v>
@@ -962,25 +962,25 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>34429</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1">
         <v>954321098</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1">
         <v>3</v>
@@ -992,13 +992,13 @@
         <v>45484</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N8" s="2">
         <v>45488</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P8" s="2">
         <v>45505</v>
@@ -1012,25 +1012,25 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>33114</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1">
         <v>943210987</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1">
         <v>4</v>
@@ -1042,13 +1042,13 @@
         <v>45507</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N9" s="2">
         <v>45514</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P9" s="2">
         <v>45536</v>
@@ -1062,25 +1062,25 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2">
         <v>34047</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1">
         <v>932109876</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1092,13 +1092,13 @@
         <v>45542</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N10" s="2">
         <v>45550</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P10" s="2">
         <v>45352</v>
@@ -1112,25 +1112,25 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2">
         <v>35246</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1">
         <v>921098765</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1">
         <v>2</v>
@@ -1142,13 +1142,13 @@
         <v>45587</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N11" s="2">
         <v>45592</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P11" s="2">
         <v>45611</v>

--- a/template Excel/HR/Application.xlsx
+++ b/template Excel/HR/Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB9509-05AF-4419-9334-3C3F5F7D6E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97242696-DC62-449B-A0B8-E2C7634FA86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B0E9E192-1C31-4093-A38F-8DE1BBD0FF18}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>PassCv</t>
   </si>
@@ -53,154 +53,25 @@
     <t>ApplicationId</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>123 Đường Láng, Hà Nội</t>
-  </si>
-  <si>
-    <t>nguyen.a@example.com</t>
-  </si>
-  <si>
-    <t>Senior</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Trần Thị B</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>456 Nguyễn Trãi, Hà Nội</t>
-  </si>
-  <si>
-    <t>tran.b@example.com</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t>Lê Văn C</t>
-  </si>
-  <si>
-    <t>789 Cầu Giấy, Hà Nội</t>
-  </si>
-  <si>
-    <t>le.c@example.com</t>
-  </si>
-  <si>
-    <t>Fresher</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Phạm Minh D</t>
-  </si>
-  <si>
-    <t>101 Đường Trần Duy Hưng</t>
-  </si>
-  <si>
-    <t>pham.d@example.com</t>
-  </si>
-  <si>
-    <t>Intern</t>
-  </si>
-  <si>
-    <t>Vũ Thị E</t>
-  </si>
-  <si>
-    <t>202 Láng Hạ, Hà Nội</t>
-  </si>
-  <si>
-    <t>vu.e@example.com</t>
-  </si>
-  <si>
-    <t>Đỗ Văn F</t>
-  </si>
-  <si>
-    <t>303 Nguyễn Xiển, Hà Nội</t>
-  </si>
-  <si>
-    <t>do.f@example.com</t>
-  </si>
-  <si>
     <t>Cancel</t>
   </si>
   <si>
-    <t>Nguyễn Thị G</t>
-  </si>
-  <si>
-    <t>404 Hoàng Quốc Việt</t>
-  </si>
-  <si>
-    <t>nguyen.g@example.com</t>
-  </si>
-  <si>
-    <t>Hoàng Văn H</t>
-  </si>
-  <si>
-    <t>505 Kim Mã, Hà Nội</t>
-  </si>
-  <si>
-    <t>hoang.h@example.com</t>
-  </si>
-  <si>
-    <t>Lý Thị I</t>
-  </si>
-  <si>
-    <t>606 Đội Cấn, Hà Nội</t>
-  </si>
-  <si>
-    <t>ly.i@example.com</t>
-  </si>
-  <si>
-    <t>Bùi Văn K</t>
-  </si>
-  <si>
-    <t>707 Phạm Hùng, Hà Nội</t>
-  </si>
-  <si>
-    <t>bui.k@example.com</t>
+    <t>RecruitmentChannelId</t>
+  </si>
+  <si>
+    <t>JobPositionId</t>
+  </si>
+  <si>
+    <t>ApplicationDate</t>
   </si>
   <si>
     <t>ApplicantId</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>DateOfBirth</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>RecruitmentChannelId</t>
-  </si>
-  <si>
-    <t>JobPositionId</t>
-  </si>
-  <si>
-    <t>ApplicationDate</t>
   </si>
 </sst>
 </file>
@@ -578,579 +449,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF1A53A-4510-4ABC-8472-F8F87243BB29}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>32918</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45296</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>987654321</v>
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45301</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>45296</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="2">
-        <v>45301</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
         <v>45323</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
-        <v>33746</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45334</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1">
-        <v>912345678</v>
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45340</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>45334</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="2">
-        <v>45340</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
         <v>45352</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2">
-        <v>32450</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45376</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1">
-        <v>901234567</v>
+      <c r="G4" s="2">
+        <v>45381</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2">
-        <v>45376</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="2">
-        <v>45381</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="2">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2">
         <v>45352</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2">
-        <v>34897</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45384</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1">
-        <v>981122334</v>
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45390</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2">
-        <v>45384</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="2">
-        <v>45390</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
         <v>45413</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2">
-        <v>33491</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45428</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1">
-        <v>976543210</v>
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45433</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2">
-        <v>45428</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="2">
-        <v>45433</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
         <v>45444</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
-        <v>32132</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
         <v>6</v>
       </c>
+      <c r="E7" s="2">
+        <v>45461</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1">
-        <v>965432109</v>
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45468</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2">
-        <v>45461</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="2">
-        <v>45468</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="2">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2">
         <v>45352</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2">
-        <v>34429</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45484</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1">
-        <v>954321098</v>
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45488</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3</v>
-      </c>
-      <c r="K8" s="1">
-        <v>7</v>
-      </c>
-      <c r="L8" s="2">
-        <v>45484</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="2">
-        <v>45488</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
         <v>45505</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2">
-        <v>33114</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45507</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="1">
-        <v>943210987</v>
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45514</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4</v>
-      </c>
-      <c r="K9" s="1">
-        <v>8</v>
-      </c>
-      <c r="L9" s="2">
-        <v>45507</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="2">
-        <v>45514</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
         <v>45536</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2">
-        <v>34047</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45542</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1">
-        <v>932109876</v>
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45550</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>9</v>
-      </c>
-      <c r="L10" s="2">
-        <v>45542</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="2">
-        <v>45550</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
         <v>45352</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2">
-        <v>35246</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45587</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="1">
-        <v>921098765</v>
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45592</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>10</v>
-      </c>
-      <c r="L11" s="2">
-        <v>45587</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="2">
-        <v>45592</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
         <v>45611</v>
       </c>
     </row>

--- a/template Excel/HR/Application.xlsx
+++ b/template Excel/HR/Application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97242696-DC62-449B-A0B8-E2C7634FA86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15D9D06-0CFC-49A6-9CC2-EAE6D78F8E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B0E9E192-1C31-4093-A38F-8DE1BBD0FF18}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{B0E9E192-1C31-4093-A38F-8DE1BBD0FF18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="11">
   <si>
     <t>PassCv</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>InterviewResult</t>
-  </si>
-  <si>
-    <t>HireDate</t>
   </si>
   <si>
     <t>ApplicationId</t>
@@ -107,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -115,6 +112,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF1A53A-4510-4ABC-8472-F8F87243BB29}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,28 +459,28 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -493,11 +491,8 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -510,23 +505,20 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <v>45296</v>
+      <c r="E2" s="3">
+        <v>44927</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45301</v>
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44927</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -540,22 +532,19 @@
         <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>45334</v>
+        <v>44939</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45340</v>
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44940</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -569,22 +558,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>45376</v>
+        <v>44952</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45381</v>
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44953</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -598,22 +584,19 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>45384</v>
+        <v>44965</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45390</v>
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44966</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -627,22 +610,19 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>45428</v>
+        <v>44978</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45433</v>
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>44979</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -656,22 +636,19 @@
         <v>6</v>
       </c>
       <c r="E7" s="2">
-        <v>45461</v>
+        <v>44991</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45468</v>
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44992</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -685,22 +662,19 @@
         <v>7</v>
       </c>
       <c r="E8" s="2">
-        <v>45484</v>
+        <v>45004</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45488</v>
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45005</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -714,22 +688,19 @@
         <v>8</v>
       </c>
       <c r="E9" s="2">
-        <v>45507</v>
+        <v>45017</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45514</v>
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45018</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -743,22 +714,19 @@
         <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>45542</v>
+        <v>45030</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2">
-        <v>45550</v>
+      <c r="G10" s="3">
+        <v>45031</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -772,19 +740,848 @@
         <v>10</v>
       </c>
       <c r="E11" s="2">
-        <v>45587</v>
+        <v>45043</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45044</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45056</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45057</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45069</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45070</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45082</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45083</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45095</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45096</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="2">
-        <v>45592</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="E16" s="2">
+        <v>45108</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="2">
-        <v>45611</v>
+      <c r="G16" s="3">
+        <v>45109</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45121</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45122</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45134</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45135</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45147</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45148</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45160</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45161</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45173</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45174</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45186</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45187</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45199</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45200</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45212</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45225</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45226</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45238</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45239</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45251</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45252</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45264</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45265</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45277</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45278</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45290</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3">
+        <v>45291</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45303</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45304</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45316</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45317</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45329</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45330</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45342</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45343</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45355</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45356</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3">
+        <v>45369</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45381</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="3">
+        <v>45382</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45394</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3">
+        <v>45395</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45407</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="3">
+        <v>45408</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45420</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="3">
+        <v>45421</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45433</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3">
+        <v>45434</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45446</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
+        <v>45447</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45459</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
+        <v>45460</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
